--- a/SPPSApi/Doc/Template/FS0307.xlsx
+++ b/SPPSApi/Doc/Template/FS0307.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78DFFD5-F8D5-4F3D-BFAC-2583E3BEC1C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C51ED2D-F84F-4A40-AFAC-BB8A852B8B81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C649836B-5C32-431A-BEED-816C03FEA17E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{C649836B-5C32-431A-BEED-816C03FEA17E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57,10 +57,6 @@
   </si>
   <si>
     <t>3年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -162,6 +158,19 @@
   </si>
   <si>
     <t>NG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货方</t>
+  </si>
+  <si>
+    <t>所属原单位</t>
+  </si>
+  <si>
+    <t>事业体</t>
+  </si>
+  <si>
+    <t>进度执行时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,107 +546,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A6AF76-8443-4F2D-B9E7-73F354456E43}">
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -651,13 +673,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
+          <xm:sqref>B2:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{814C132B-D4DA-484F-A62B-A7D0660E87BA}">
           <x14:formula1>
             <xm:f>Sheet2!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>T2:T1048576</xm:sqref>
+          <xm:sqref>W2:W1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -677,33 +699,33 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0307.xlsx
+++ b/SPPSApi/Doc/Template/FS0307.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C51ED2D-F84F-4A40-AFAC-BB8A852B8B81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C809AE-545C-4541-9CB6-C9A8C8A8D558}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{C649836B-5C32-431A-BEED-816C03FEA17E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C649836B-5C32-431A-BEED-816C03FEA17E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>进度执行时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A6AF76-8443-4F2D-B9E7-73F354456E43}">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -558,7 +562,7 @@
     <col min="7" max="7" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -619,46 +623,49 @@
       <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s">
         <v>8</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -679,7 +686,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>W2:W1048576</xm:sqref>
+          <xm:sqref>X2:X1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
